--- a/SAN-038-25-09-1_CORRIGIDO.xlsx
+++ b/SAN-038-25-09-1_CORRIGIDO.xlsx
@@ -7285,17 +7285,18 @@
     </row>
     <row r="54" ht="13.5" customHeight="1" thickBot="1">
       <c r="C54" s="162" t="n">
-        <v>10768.4201183432</v>
+        <v>7947.608502220049</v>
       </c>
       <c r="D54" s="668" t="n"/>
       <c r="E54" s="669" t="n"/>
       <c r="F54" s="162" t="n">
-        <v>229</v>
+        <v>360</v>
       </c>
       <c r="G54" s="668" t="n"/>
       <c r="H54" s="669" t="n"/>
-      <c r="I54" s="702" t="n">
-        <v>33858.49554066015</v>
+      <c r="I54" s="702">
+        <f>IF(C54="","",L54/AA54*3600)</f>
+        <v/>
       </c>
       <c r="J54" s="666" t="n"/>
       <c r="K54" s="667" t="n"/>
@@ -7306,7 +7307,7 @@
       <c r="M54" s="666" t="n"/>
       <c r="N54" s="667" t="n"/>
       <c r="O54" s="162" t="n">
-        <v>2155.5675147929</v>
+        <v>1590.79</v>
       </c>
       <c r="P54" s="668" t="n"/>
       <c r="Q54" s="669" t="n"/>
@@ -7356,17 +7357,18 @@
     </row>
     <row r="55" ht="13.5" customHeight="1" thickBot="1">
       <c r="C55" s="162" t="n">
-        <v>10816</v>
+        <v>10816.57171429601</v>
       </c>
       <c r="D55" s="668" t="n"/>
       <c r="E55" s="669" t="n"/>
       <c r="F55" s="162" t="n">
-        <v>229</v>
+        <v>360</v>
       </c>
       <c r="G55" s="668" t="n"/>
       <c r="H55" s="669" t="n"/>
-      <c r="I55" s="702" t="n">
-        <v>34007.18750079771</v>
+      <c r="I55" s="702">
+        <f>IF(C55="","",L55/AA55*3600)</f>
+        <v/>
       </c>
       <c r="J55" s="666" t="n"/>
       <c r="K55" s="667" t="n"/>
@@ -7429,17 +7431,18 @@
     </row>
     <row r="56" ht="13.5" customHeight="1" thickBot="1">
       <c r="C56" s="162" t="n">
-        <v>10844.61591695502</v>
+        <v>13686.39739166547</v>
       </c>
       <c r="D56" s="668" t="n"/>
       <c r="E56" s="669" t="n"/>
       <c r="F56" s="162" t="n">
-        <v>229</v>
+        <v>360</v>
       </c>
       <c r="G56" s="668" t="n"/>
       <c r="H56" s="669" t="n"/>
-      <c r="I56" s="702" t="n">
-        <v>34096.62687815898</v>
+      <c r="I56" s="702">
+        <f>IF(C56="","",L56/AA56*3600)</f>
+        <v/>
       </c>
       <c r="J56" s="666" t="n"/>
       <c r="K56" s="667" t="n"/>
@@ -7450,7 +7453,7 @@
       <c r="M56" s="666" t="n"/>
       <c r="N56" s="667" t="n"/>
       <c r="O56" s="162" t="n">
-        <v>2162.404211072665</v>
+        <v>2728.973</v>
       </c>
       <c r="P56" s="668" t="n"/>
       <c r="Q56" s="669" t="n"/>
@@ -7906,17 +7909,18 @@
     </row>
     <row r="63" ht="13.5" customHeight="1" thickBot="1">
       <c r="C63" s="162" t="n">
-        <v>17482.33540372671</v>
+        <v>12737.70723541161</v>
       </c>
       <c r="D63" s="668" t="n"/>
       <c r="E63" s="669" t="n"/>
       <c r="F63" s="162" t="n">
-        <v>221</v>
+        <v>360</v>
       </c>
       <c r="G63" s="668" t="n"/>
       <c r="H63" s="669" t="n"/>
-      <c r="I63" s="702" t="n">
-        <v>56964.3802352797</v>
+      <c r="I63" s="702">
+        <f>IF(C63="","",L63/AA63*3600)</f>
+        <v/>
       </c>
       <c r="J63" s="666" t="n"/>
       <c r="K63" s="667" t="n"/>
@@ -7927,7 +7931,7 @@
       <c r="M63" s="666" t="n"/>
       <c r="N63" s="667" t="n"/>
       <c r="O63" s="162" t="n">
-        <v>3504.692124223603</v>
+        <v>2553.192</v>
       </c>
       <c r="P63" s="668" t="n"/>
       <c r="Q63" s="669" t="n"/>
@@ -7974,17 +7978,18 @@
     </row>
     <row r="64" ht="13.5" customHeight="1" thickBot="1">
       <c r="C64" s="162" t="n">
-        <v>17516</v>
+        <v>17517.63942981521</v>
       </c>
       <c r="D64" s="668" t="n"/>
       <c r="E64" s="669" t="n"/>
       <c r="F64" s="162" t="n">
-        <v>221</v>
+        <v>360</v>
       </c>
       <c r="G64" s="668" t="n"/>
       <c r="H64" s="669" t="n"/>
-      <c r="I64" s="702" t="n">
-        <v>57072.39753146231</v>
+      <c r="I64" s="702">
+        <f>IF(C64="","",L64/AA64*3600)</f>
+        <v/>
       </c>
       <c r="J64" s="666" t="n"/>
       <c r="K64" s="667" t="n"/>
@@ -8040,17 +8045,18 @@
     </row>
     <row r="65" ht="13.5" customHeight="1" thickBot="1">
       <c r="C65" s="162" t="n">
-        <v>17538.43416370107</v>
+        <v>22301.18226314542</v>
       </c>
       <c r="D65" s="668" t="n"/>
       <c r="E65" s="669" t="n"/>
       <c r="F65" s="162" t="n">
-        <v>221</v>
+        <v>360</v>
       </c>
       <c r="G65" s="668" t="n"/>
       <c r="H65" s="669" t="n"/>
-      <c r="I65" s="702" t="n">
-        <v>57144.5362263568</v>
+      <c r="I65" s="702">
+        <f>IF(C65="","",L65/AA65*3600)</f>
+        <v/>
       </c>
       <c r="J65" s="666" t="n"/>
       <c r="K65" s="667" t="n"/>
@@ -8061,7 +8067,7 @@
       <c r="M65" s="666" t="n"/>
       <c r="N65" s="667" t="n"/>
       <c r="O65" s="162" t="n">
-        <v>3516.296395017794</v>
+        <v>4470.947</v>
       </c>
       <c r="P65" s="668" t="n"/>
       <c r="Q65" s="669" t="n"/>
@@ -8467,17 +8473,18 @@
     </row>
     <row r="72" ht="13.5" customHeight="1" thickBot="1">
       <c r="C72" s="162" t="n">
-        <v>31598.34042553191</v>
+        <v>22172.5155693995</v>
       </c>
       <c r="D72" s="668" t="n"/>
       <c r="E72" s="669" t="n"/>
       <c r="F72" s="162" t="n">
-        <v>201</v>
+        <v>360</v>
       </c>
       <c r="G72" s="668" t="n"/>
       <c r="H72" s="669" t="n"/>
-      <c r="I72" s="702" t="n">
-        <v>113233.6094784017</v>
+      <c r="I72" s="702">
+        <f>IF(C72="","",L72/AA72*3600)</f>
+        <v/>
       </c>
       <c r="J72" s="666" t="n"/>
       <c r="K72" s="667" t="n"/>
@@ -8488,7 +8495,7 @@
       <c r="M72" s="666" t="n"/>
       <c r="N72" s="667" t="n"/>
       <c r="O72" s="162" t="n">
-        <v>6311.528297872341</v>
+        <v>4427.49</v>
       </c>
       <c r="P72" s="668" t="n"/>
       <c r="Q72" s="669" t="n"/>
@@ -8524,17 +8531,18 @@
     </row>
     <row r="73" ht="13.5" customHeight="1" thickBot="1">
       <c r="C73" s="162" t="n">
-        <v>31668</v>
+        <v>31674.76872140461</v>
       </c>
       <c r="D73" s="668" t="n"/>
       <c r="E73" s="669" t="n"/>
       <c r="F73" s="162" t="n">
-        <v>201</v>
+        <v>360</v>
       </c>
       <c r="G73" s="668" t="n"/>
       <c r="H73" s="669" t="n"/>
-      <c r="I73" s="702" t="n">
-        <v>113479.1076686725</v>
+      <c r="I73" s="702">
+        <f>IF(C73="","",L73/AA73*3600)</f>
+        <v/>
       </c>
       <c r="J73" s="666" t="n"/>
       <c r="K73" s="667" t="n"/>
@@ -8581,17 +8589,18 @@
     </row>
     <row r="74" ht="13.5" customHeight="1" thickBot="1">
       <c r="C74" s="162" t="n">
-        <v>31717.95402298851</v>
+        <v>41191.45546077126</v>
       </c>
       <c r="D74" s="668" t="n"/>
       <c r="E74" s="669" t="n"/>
       <c r="F74" s="162" t="n">
-        <v>201</v>
+        <v>360</v>
       </c>
       <c r="G74" s="668" t="n"/>
       <c r="H74" s="669" t="n"/>
-      <c r="I74" s="702" t="n">
-        <v>113655.9002979997</v>
+      <c r="I74" s="702">
+        <f>IF(C74="","",L74/AA74*3600)</f>
+        <v/>
       </c>
       <c r="J74" s="666" t="n"/>
       <c r="K74" s="667" t="n"/>
@@ -8602,7 +8611,7 @@
       <c r="M74" s="666" t="n"/>
       <c r="N74" s="667" t="n"/>
       <c r="O74" s="162" t="n">
-        <v>6357.866425287356</v>
+        <v>8255.736999999999</v>
       </c>
       <c r="P74" s="668" t="n"/>
       <c r="Q74" s="669" t="n"/>
@@ -8959,17 +8968,18 @@
     </row>
     <row r="81" ht="13.5" customHeight="1" thickBot="1">
       <c r="C81" s="162" t="n">
-        <v>51200.875</v>
+        <v>37251.799266523</v>
       </c>
       <c r="D81" s="668" t="n"/>
       <c r="E81" s="669" t="n"/>
       <c r="F81" s="162" t="n">
-        <v>220</v>
+        <v>360</v>
       </c>
       <c r="G81" s="668" t="n"/>
       <c r="H81" s="669" t="n"/>
-      <c r="I81" s="702" t="n">
-        <v>167670.2740285996</v>
+      <c r="I81" s="702">
+        <f>IF(C81="","",L81/AA81*3600)</f>
+        <v/>
       </c>
       <c r="J81" s="666" t="n"/>
       <c r="K81" s="667" t="n"/>
@@ -8980,7 +8990,7 @@
       <c r="M81" s="666" t="n"/>
       <c r="N81" s="667" t="n"/>
       <c r="O81" s="162" t="n">
-        <v>10227.086375</v>
+        <v>7437.881</v>
       </c>
       <c r="P81" s="668" t="n"/>
       <c r="Q81" s="669" t="n"/>
@@ -9016,17 +9026,18 @@
     </row>
     <row r="82" ht="13.5" customHeight="1" thickBot="1">
       <c r="C82" s="162" t="n">
-        <v>51368</v>
+        <v>51382.29082263995</v>
       </c>
       <c r="D82" s="668" t="n"/>
       <c r="E82" s="669" t="n"/>
       <c r="F82" s="162" t="n">
-        <v>220</v>
+        <v>360</v>
       </c>
       <c r="G82" s="668" t="n"/>
       <c r="H82" s="669" t="n"/>
-      <c r="I82" s="702" t="n">
-        <v>168212.8864735265</v>
+      <c r="I82" s="702">
+        <f>IF(C82="","",L82/AA82*3600)</f>
+        <v/>
       </c>
       <c r="J82" s="666" t="n"/>
       <c r="K82" s="667" t="n"/>
@@ -9073,17 +9084,18 @@
     </row>
     <row r="83" ht="13.5" customHeight="1" thickBot="1">
       <c r="C83" s="162" t="n">
-        <v>51470.57142857143</v>
+        <v>65518.41466034269</v>
       </c>
       <c r="D83" s="668" t="n"/>
       <c r="E83" s="669" t="n"/>
       <c r="F83" s="162" t="n">
-        <v>220</v>
+        <v>360</v>
       </c>
       <c r="G83" s="668" t="n"/>
       <c r="H83" s="669" t="n"/>
-      <c r="I83" s="702" t="n">
-        <v>168546.1099768279</v>
+      <c r="I83" s="702">
+        <f>IF(C83="","",L83/AA83*3600)</f>
+        <v/>
       </c>
       <c r="J83" s="666" t="n"/>
       <c r="K83" s="667" t="n"/>
@@ -9094,7 +9106,7 @@
       <c r="M83" s="666" t="n"/>
       <c r="N83" s="667" t="n"/>
       <c r="O83" s="162" t="n">
-        <v>10305.65407142857</v>
+        <v>13116.287</v>
       </c>
       <c r="P83" s="668" t="n"/>
       <c r="Q83" s="669" t="n"/>
@@ -9455,17 +9467,18 @@
     </row>
     <row r="90" ht="13.5" customHeight="1" thickBot="1">
       <c r="C90" s="162" t="n">
-        <v>61124.81728395062</v>
+        <v>42198.29050065747</v>
       </c>
       <c r="D90" s="668" t="n"/>
       <c r="E90" s="669" t="n"/>
       <c r="F90" s="162" t="n">
-        <v>195.6666666666667</v>
+        <v>360</v>
       </c>
       <c r="G90" s="668" t="n"/>
       <c r="H90" s="669" t="n"/>
-      <c r="I90" s="702" t="n">
-        <v>225121.612937236</v>
+      <c r="I90" s="702">
+        <f>IF(C90="","",L90/AA90*3600)</f>
+        <v/>
       </c>
       <c r="J90" s="666" t="n"/>
       <c r="K90" s="667" t="n"/>
@@ -9476,7 +9489,7 @@
       <c r="M90" s="666" t="n"/>
       <c r="N90" s="667" t="n"/>
       <c r="O90" s="162" t="n">
-        <v>12219.28042716049</v>
+        <v>8430.679</v>
       </c>
       <c r="P90" s="668" t="n"/>
       <c r="Q90" s="669" t="n"/>
@@ -9512,17 +9525,18 @@
     </row>
     <row r="91" ht="13.5" customHeight="1" thickBot="1">
       <c r="C91" s="162" t="n">
-        <v>60960.14965986394</v>
+        <v>61090.5720736469</v>
       </c>
       <c r="D91" s="668" t="n"/>
       <c r="E91" s="669" t="n"/>
       <c r="F91" s="162" t="n">
-        <v>195.6666666666667</v>
+        <v>360</v>
       </c>
       <c r="G91" s="668" t="n"/>
       <c r="H91" s="669" t="n"/>
-      <c r="I91" s="702" t="n">
-        <v>224505.4052472953</v>
+      <c r="I91" s="702">
+        <f>IF(C91="","",L91/AA91*3600)</f>
+        <v/>
       </c>
       <c r="J91" s="666" t="n"/>
       <c r="K91" s="667" t="n"/>
@@ -9533,7 +9547,7 @@
       <c r="M91" s="666" t="n"/>
       <c r="N91" s="667" t="n"/>
       <c r="O91" s="162" t="n">
-        <v>12205.67069387755</v>
+        <v>12226.464</v>
       </c>
       <c r="P91" s="668" t="n"/>
       <c r="Q91" s="669" t="n"/>
@@ -9569,17 +9583,18 @@
     </row>
     <row r="92" ht="13.5" customHeight="1" thickBot="1">
       <c r="C92" s="162" t="n">
-        <v>61091.56640625</v>
+        <v>79950.98995439582</v>
       </c>
       <c r="D92" s="668" t="n"/>
       <c r="E92" s="669" t="n"/>
       <c r="F92" s="162" t="n">
-        <v>195.6666666666667</v>
+        <v>360</v>
       </c>
       <c r="G92" s="668" t="n"/>
       <c r="H92" s="669" t="n"/>
-      <c r="I92" s="702" t="n">
-        <v>224985.0924017308</v>
+      <c r="I92" s="702">
+        <f>IF(C92="","",L92/AA92*3600)</f>
+        <v/>
       </c>
       <c r="J92" s="666" t="n"/>
       <c r="K92" s="667" t="n"/>
@@ -9590,7 +9605,7 @@
       <c r="M92" s="666" t="n"/>
       <c r="N92" s="667" t="n"/>
       <c r="O92" s="162" t="n">
-        <v>12249.70937369792</v>
+        <v>16026.877</v>
       </c>
       <c r="P92" s="668" t="n"/>
       <c r="Q92" s="669" t="n"/>
@@ -9942,17 +9957,18 @@
     </row>
     <row r="99" ht="13.5" customHeight="1" thickBot="1">
       <c r="C99" s="162" t="n">
-        <v>11763.3950617284</v>
+        <v>8905.612139829916</v>
       </c>
       <c r="D99" s="668" t="n"/>
       <c r="E99" s="669" t="n"/>
       <c r="F99" s="162" t="n">
-        <v>249.6666666666667</v>
+        <v>360</v>
       </c>
       <c r="G99" s="668" t="n"/>
       <c r="H99" s="669" t="n"/>
-      <c r="I99" s="702" t="n">
-        <v>33924.90054787937</v>
+      <c r="I99" s="702">
+        <f>IF(C99="","",L99/AA99*3600)</f>
+        <v/>
       </c>
       <c r="J99" s="666" t="n"/>
       <c r="K99" s="667" t="n"/>
@@ -9963,7 +9979,7 @@
       <c r="M99" s="666" t="n"/>
       <c r="N99" s="667" t="n"/>
       <c r="O99" s="162" t="n">
-        <v>2352.645987654321</v>
+        <v>1780.975</v>
       </c>
       <c r="P99" s="668" t="n"/>
       <c r="Q99" s="669" t="n"/>
@@ -9999,17 +10015,18 @@
     </row>
     <row r="100" ht="13.5" customHeight="1" thickBot="1">
       <c r="C100" s="162" t="n">
-        <v>11727.34266666667</v>
+        <v>11743.51831317819</v>
       </c>
       <c r="D100" s="668" t="n"/>
       <c r="E100" s="669" t="n"/>
       <c r="F100" s="162" t="n">
-        <v>249.6666666666667</v>
+        <v>360</v>
       </c>
       <c r="G100" s="668" t="n"/>
       <c r="H100" s="669" t="n"/>
-      <c r="I100" s="702" t="n">
-        <v>33820.14061037541</v>
+      <c r="I100" s="702">
+        <f>IF(C100="","",L100/AA100*3600)</f>
+        <v/>
       </c>
       <c r="J100" s="666" t="n"/>
       <c r="K100" s="667" t="n"/>
@@ -10020,7 +10037,7 @@
       <c r="M100" s="666" t="n"/>
       <c r="N100" s="667" t="n"/>
       <c r="O100" s="162" t="n">
-        <v>2344.16028</v>
+        <v>2347.29</v>
       </c>
       <c r="P100" s="668" t="n"/>
       <c r="Q100" s="669" t="n"/>
@@ -10056,17 +10073,18 @@
     </row>
     <row r="101" ht="13.5" customHeight="1" thickBot="1">
       <c r="C101" s="162" t="n">
-        <v>11746.41397849462</v>
+        <v>14585.29292693544</v>
       </c>
       <c r="D101" s="668" t="n"/>
       <c r="E101" s="669" t="n"/>
       <c r="F101" s="162" t="n">
-        <v>249.6666666666667</v>
+        <v>360</v>
       </c>
       <c r="G101" s="668" t="n"/>
       <c r="H101" s="669" t="n"/>
-      <c r="I101" s="702" t="n">
-        <v>33874.68402460668</v>
+      <c r="I101" s="702">
+        <f>IF(C101="","",L101/AA101*3600)</f>
+        <v/>
       </c>
       <c r="J101" s="666" t="n"/>
       <c r="K101" s="667" t="n"/>
@@ -10077,7 +10095,7 @@
       <c r="M101" s="666" t="n"/>
       <c r="N101" s="667" t="n"/>
       <c r="O101" s="162" t="n">
-        <v>2349.005746236559</v>
+        <v>2916.656</v>
       </c>
       <c r="P101" s="668" t="n"/>
       <c r="Q101" s="669" t="n"/>
@@ -10429,17 +10447,18 @@
     </row>
     <row r="108" ht="13.5" customHeight="1" thickBot="1">
       <c r="C108" s="162" t="n">
-        <v>49384.58823529412</v>
+        <v>39983.62210590836</v>
       </c>
       <c r="D108" s="668" t="n"/>
       <c r="E108" s="669" t="n"/>
       <c r="F108" s="162" t="n">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="G108" s="668" t="n"/>
       <c r="H108" s="669" t="n"/>
-      <c r="I108" s="702" t="n">
-        <v>112917.9769031129</v>
+      <c r="I108" s="702">
+        <f>IF(C108="","",L108/AA108*3600)</f>
+        <v/>
       </c>
       <c r="J108" s="666" t="n"/>
       <c r="K108" s="667" t="n"/>
@@ -10450,7 +10469,7 @@
       <c r="M108" s="666" t="n"/>
       <c r="N108" s="667" t="n"/>
       <c r="O108" s="162" t="n">
-        <v>9870.534882352942</v>
+        <v>7990.433</v>
       </c>
       <c r="P108" s="668" t="n"/>
       <c r="Q108" s="669" t="n"/>
@@ -10486,17 +10505,18 @@
     </row>
     <row r="109" ht="13.5" customHeight="1" thickBot="1">
       <c r="C109" s="162" t="n">
-        <v>49467</v>
+        <v>49469.99526673161</v>
       </c>
       <c r="D109" s="668" t="n"/>
       <c r="E109" s="669" t="n"/>
       <c r="F109" s="162" t="n">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="G109" s="668" t="n"/>
       <c r="H109" s="669" t="n"/>
-      <c r="I109" s="702" t="n">
-        <v>113105.0080439216</v>
+      <c r="I109" s="702">
+        <f>IF(C109="","",L109/AA109*3600)</f>
+        <v/>
       </c>
       <c r="J109" s="666" t="n"/>
       <c r="K109" s="667" t="n"/>
@@ -10543,17 +10563,18 @@
     </row>
     <row r="110" ht="13.5" customHeight="1" thickBot="1">
       <c r="C110" s="162" t="n">
-        <v>49491.12</v>
+        <v>58916.80793830752</v>
       </c>
       <c r="D110" s="668" t="n"/>
       <c r="E110" s="669" t="n"/>
       <c r="F110" s="162" t="n">
-        <v>315</v>
+        <v>360</v>
       </c>
       <c r="G110" s="668" t="n"/>
       <c r="H110" s="669" t="n"/>
-      <c r="I110" s="702" t="n">
-        <v>113159.1677264231</v>
+      <c r="I110" s="702">
+        <f>IF(C110="","",L110/AA110*3600)</f>
+        <v/>
       </c>
       <c r="J110" s="666" t="n"/>
       <c r="K110" s="667" t="n"/>
@@ -10564,7 +10585,7 @@
       <c r="M110" s="666" t="n"/>
       <c r="N110" s="667" t="n"/>
       <c r="O110" s="162" t="n">
-        <v>9900.86412</v>
+        <v>11786.743</v>
       </c>
       <c r="P110" s="668" t="n"/>
       <c r="Q110" s="669" t="n"/>
@@ -10903,17 +10924,18 @@
     </row>
     <row r="117" ht="13.5" customHeight="1" thickBot="1">
       <c r="C117" s="162" t="n">
-        <v>72407.01754385965</v>
+        <v>53627.04880768424</v>
       </c>
       <c r="D117" s="668" t="n"/>
       <c r="E117" s="669" t="n"/>
       <c r="F117" s="162" t="n">
-        <v>231</v>
+        <v>360</v>
       </c>
       <c r="G117" s="668" t="n"/>
       <c r="H117" s="669" t="n"/>
-      <c r="I117" s="702" t="n">
-        <v>225878.3296311224</v>
+      <c r="I117" s="702">
+        <f>IF(C117="","",L117/AA117*3600)</f>
+        <v/>
       </c>
       <c r="J117" s="666" t="n"/>
       <c r="K117" s="667" t="n"/>
@@ -10924,7 +10946,7 @@
       <c r="M117" s="666" t="n"/>
       <c r="N117" s="667" t="n"/>
       <c r="O117" s="162" t="n">
-        <v>14500.66877368421</v>
+        <v>10734.2613</v>
       </c>
       <c r="P117" s="668" t="n"/>
       <c r="Q117" s="669" t="n"/>
@@ -10962,17 +10984,18 @@
     </row>
     <row r="118" ht="13.5" customHeight="1" thickBot="1">
       <c r="C118" s="162" t="n">
-        <v>72499</v>
+        <v>72524.01120393857</v>
       </c>
       <c r="D118" s="668" t="n"/>
       <c r="E118" s="669" t="n"/>
       <c r="F118" s="162" t="n">
-        <v>231</v>
+        <v>360</v>
       </c>
       <c r="G118" s="668" t="n"/>
       <c r="H118" s="669" t="n"/>
-      <c r="I118" s="702" t="n">
-        <v>226159.471664401</v>
+      <c r="I118" s="702">
+        <f>IF(C118="","",L118/AA118*3600)</f>
+        <v/>
       </c>
       <c r="J118" s="666" t="n"/>
       <c r="K118" s="667" t="n"/>
@@ -11021,17 +11044,18 @@
     </row>
     <row r="119" ht="13.5" customHeight="1" thickBot="1">
       <c r="C119" s="162" t="n">
-        <v>72577.65979381443</v>
+        <v>91445.86747921347</v>
       </c>
       <c r="D119" s="668" t="n"/>
       <c r="E119" s="669" t="n"/>
       <c r="F119" s="162" t="n">
-        <v>231</v>
+        <v>360</v>
       </c>
       <c r="G119" s="668" t="n"/>
       <c r="H119" s="669" t="n"/>
-      <c r="I119" s="702" t="n">
-        <v>226401.5100054441</v>
+      <c r="I119" s="702">
+        <f>IF(C119="","",L119/AA119*3600)</f>
+        <v/>
       </c>
       <c r="J119" s="666" t="n"/>
       <c r="K119" s="667" t="n"/>
@@ -11042,7 +11066,7 @@
       <c r="M119" s="666" t="n"/>
       <c r="N119" s="667" t="n"/>
       <c r="O119" s="162" t="n">
-        <v>14521.94359793815</v>
+        <v>18293.877</v>
       </c>
       <c r="P119" s="668" t="n"/>
       <c r="Q119" s="669" t="n"/>
